--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2157</v>
+        <v>2160.906096720676</v>
       </c>
       <c r="C2">
-        <v>2008</v>
+        <v>2010.631070832981</v>
       </c>
       <c r="D2">
-        <v>1353</v>
+        <v>1347.133603557302</v>
       </c>
       <c r="E2">
-        <v>2207</v>
+        <v>2211.062976753502</v>
       </c>
       <c r="F2">
-        <v>2173</v>
+        <v>2176.626862922192</v>
       </c>
       <c r="G2">
-        <v>2136</v>
+        <v>2136.069371440038</v>
       </c>
       <c r="H2">
-        <v>2208</v>
+        <v>2212.565927724553</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2175</v>
+        <v>2178.466453297492</v>
       </c>
       <c r="C3">
-        <v>2013</v>
+        <v>2018.735400027925</v>
       </c>
       <c r="D3">
-        <v>1207</v>
+        <v>1200.691650150008</v>
       </c>
       <c r="E3">
-        <v>2207</v>
+        <v>2212.289353747457</v>
       </c>
       <c r="F3">
-        <v>2184</v>
+        <v>2186.295744950701</v>
       </c>
       <c r="G3">
-        <v>2131</v>
+        <v>2132.944830111488</v>
       </c>
       <c r="H3">
-        <v>2207</v>
+        <v>2213.057972484487</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2118</v>
+        <v>2122.310463277523</v>
       </c>
       <c r="C4">
-        <v>2010</v>
+        <v>2017.413604081494</v>
       </c>
       <c r="D4">
-        <v>1249</v>
+        <v>1242.196491198539</v>
       </c>
       <c r="E4">
-        <v>2197</v>
+        <v>2204.188048573605</v>
       </c>
       <c r="F4">
-        <v>2139</v>
+        <v>2143.181371125894</v>
       </c>
       <c r="G4">
-        <v>2124</v>
+        <v>2127.424284502383</v>
       </c>
       <c r="H4">
-        <v>2199</v>
+        <v>2205.988257890221</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2178</v>
+        <v>2180.197948453717</v>
       </c>
       <c r="C5">
-        <v>2018</v>
+        <v>2025.331113879538</v>
       </c>
       <c r="D5">
-        <v>1351</v>
+        <v>1344.466638394197</v>
       </c>
       <c r="E5">
-        <v>2206</v>
+        <v>2212.0045224477</v>
       </c>
       <c r="F5">
-        <v>2181</v>
+        <v>2184.578900396438</v>
       </c>
       <c r="G5">
-        <v>2116</v>
+        <v>2120.356950798305</v>
       </c>
       <c r="H5">
-        <v>2207</v>
+        <v>2212.657041173416</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2185</v>
+        <v>2186.955418566179</v>
       </c>
       <c r="C6">
-        <v>2016</v>
+        <v>2024.724179085728</v>
       </c>
       <c r="D6">
-        <v>483</v>
+        <v>481.0406291909139</v>
       </c>
       <c r="E6">
-        <v>2211</v>
+        <v>2216.909327032102</v>
       </c>
       <c r="F6">
-        <v>2188</v>
+        <v>2190.875211451854</v>
       </c>
       <c r="G6">
-        <v>2053</v>
+        <v>2056.101009838984</v>
       </c>
       <c r="H6">
-        <v>2211</v>
+        <v>2217.150133649538</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2163</v>
+        <v>2166.472776123554</v>
       </c>
       <c r="C7">
-        <v>2022</v>
+        <v>2030.493497846352</v>
       </c>
       <c r="D7">
-        <v>745</v>
+        <v>742.1278514679626</v>
       </c>
       <c r="E7">
-        <v>2203</v>
+        <v>2209.28319458538</v>
       </c>
       <c r="F7">
-        <v>2169</v>
+        <v>2172.310782951094</v>
       </c>
       <c r="G7">
-        <v>2067</v>
+        <v>2070.712256698685</v>
       </c>
       <c r="H7">
-        <v>2205</v>
+        <v>2210.270146677729</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2165</v>
+        <v>2167.740513980736</v>
       </c>
       <c r="C8">
-        <v>1980</v>
+        <v>1982.384839167365</v>
       </c>
       <c r="D8">
-        <v>784</v>
+        <v>780.1099568704429</v>
       </c>
       <c r="E8">
-        <v>2196</v>
+        <v>2202.028990745872</v>
       </c>
       <c r="F8">
-        <v>2167</v>
+        <v>2169.76364612606</v>
       </c>
       <c r="G8">
-        <v>2046</v>
+        <v>2049.817509468166</v>
       </c>
       <c r="H8">
-        <v>2197</v>
+        <v>2202.406249820687</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2179</v>
+        <v>2181.940540741372</v>
       </c>
       <c r="C9">
-        <v>2013</v>
+        <v>2019.818827124698</v>
       </c>
       <c r="D9">
-        <v>748</v>
+        <v>744.3932991661693</v>
       </c>
       <c r="E9">
-        <v>2200</v>
+        <v>2205.775692409016</v>
       </c>
       <c r="F9">
-        <v>2186</v>
+        <v>2189.436098052507</v>
       </c>
       <c r="G9">
-        <v>2069</v>
+        <v>2073.482490100606</v>
       </c>
       <c r="H9">
-        <v>2201</v>
+        <v>2207.082550820086</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1906</v>
+        <v>1908.84393146966</v>
       </c>
       <c r="C10">
-        <v>2034</v>
+        <v>2038.806492436251</v>
       </c>
       <c r="D10">
-        <v>1544</v>
+        <v>1529.336312426829</v>
       </c>
       <c r="E10">
-        <v>2168</v>
+        <v>2172.380610578276</v>
       </c>
       <c r="F10">
-        <v>2024</v>
+        <v>2024.861244482418</v>
       </c>
       <c r="G10">
-        <v>2112</v>
+        <v>2114.98496527085</v>
       </c>
       <c r="H10">
-        <v>2174</v>
+        <v>2178.023297273562</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1847</v>
+        <v>1850.571204774973</v>
       </c>
       <c r="C11">
-        <v>2041</v>
+        <v>2047.386004418435</v>
       </c>
       <c r="D11">
-        <v>1384</v>
+        <v>1373.274597388961</v>
       </c>
       <c r="E11">
-        <v>2168</v>
+        <v>2173.445557392237</v>
       </c>
       <c r="F11">
-        <v>1965</v>
+        <v>1967.172106832768</v>
       </c>
       <c r="G11">
-        <v>2099</v>
+        <v>2103.257864896071</v>
       </c>
       <c r="H11">
-        <v>2172</v>
+        <v>2177.081546657847</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1554</v>
+        <v>1557.822975848908</v>
       </c>
       <c r="C12">
-        <v>2024</v>
+        <v>2028.861029587857</v>
       </c>
       <c r="D12">
-        <v>656</v>
+        <v>643.7507583034647</v>
       </c>
       <c r="E12">
-        <v>2131</v>
+        <v>2134.639480504867</v>
       </c>
       <c r="F12">
-        <v>1610</v>
+        <v>1609.080127237416</v>
       </c>
       <c r="G12">
-        <v>2041</v>
+        <v>2043.878760777674</v>
       </c>
       <c r="H12">
-        <v>2132</v>
+        <v>2135.293080965606</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1885</v>
+        <v>1889.092437598045</v>
       </c>
       <c r="C13">
-        <v>2031</v>
+        <v>2034.465361463813</v>
       </c>
       <c r="D13">
-        <v>1351</v>
+        <v>1332.77621821056</v>
       </c>
       <c r="E13">
-        <v>2163</v>
+        <v>2167.399040879289</v>
       </c>
       <c r="F13">
-        <v>1979</v>
+        <v>1979.265623244521</v>
       </c>
       <c r="G13">
-        <v>2085</v>
+        <v>2086.80489728298</v>
       </c>
       <c r="H13">
-        <v>2166</v>
+        <v>2170.737924912611</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2160.906096720676</v>
+        <v>2153.404674655214</v>
       </c>
       <c r="C2">
-        <v>2010.631070832981</v>
+        <v>2019.65137698106</v>
       </c>
       <c r="D2">
-        <v>1347.133603557302</v>
+        <v>1288.598318299488</v>
       </c>
       <c r="E2">
-        <v>2211.062976753502</v>
+        <v>2207.634784525159</v>
       </c>
       <c r="F2">
-        <v>2176.626862922192</v>
+        <v>2166.829063095808</v>
       </c>
       <c r="G2">
-        <v>2136.069371440038</v>
+        <v>2117.822127068378</v>
       </c>
       <c r="H2">
-        <v>2212.565927724553</v>
+        <v>2208.403244617683</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2178.466453297492</v>
+        <v>2167.919267104751</v>
       </c>
       <c r="C3">
-        <v>2018.735400027925</v>
+        <v>2005.850707726499</v>
       </c>
       <c r="D3">
-        <v>1200.691650150008</v>
+        <v>1198.80826412927</v>
       </c>
       <c r="E3">
-        <v>2212.289353747457</v>
+        <v>2208.597110484804</v>
       </c>
       <c r="F3">
-        <v>2186.295744950701</v>
+        <v>2177.716156320934</v>
       </c>
       <c r="G3">
-        <v>2132.944830111488</v>
+        <v>2120.873835504526</v>
       </c>
       <c r="H3">
-        <v>2213.057972484487</v>
+        <v>2209.645091342383</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2122.310463277523</v>
+        <v>2125.536400114443</v>
       </c>
       <c r="C4">
-        <v>2017.413604081494</v>
+        <v>1999.697133928843</v>
       </c>
       <c r="D4">
-        <v>1242.196491198539</v>
+        <v>1331.571422266589</v>
       </c>
       <c r="E4">
-        <v>2204.188048573605</v>
+        <v>2202.875555940004</v>
       </c>
       <c r="F4">
-        <v>2143.181371125894</v>
+        <v>2152.505854428427</v>
       </c>
       <c r="G4">
-        <v>2127.424284502383</v>
+        <v>2128.981365065217</v>
       </c>
       <c r="H4">
-        <v>2205.988257890221</v>
+        <v>2205.912971439555</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2180.197948453717</v>
+        <v>2181.355091771743</v>
       </c>
       <c r="C5">
-        <v>2025.331113879538</v>
+        <v>2001.652044131167</v>
       </c>
       <c r="D5">
-        <v>1344.466638394197</v>
+        <v>1382.46925225321</v>
       </c>
       <c r="E5">
-        <v>2212.0045224477</v>
+        <v>2205.646168140773</v>
       </c>
       <c r="F5">
-        <v>2184.578900396438</v>
+        <v>2184.682886923108</v>
       </c>
       <c r="G5">
-        <v>2120.356950798305</v>
+        <v>2127.444333499336</v>
       </c>
       <c r="H5">
-        <v>2212.657041173416</v>
+        <v>2206.06686964274</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2186.955418566179</v>
+        <v>2185.000876852311</v>
       </c>
       <c r="C6">
-        <v>2024.724179085728</v>
+        <v>2010.435423619375</v>
       </c>
       <c r="D6">
-        <v>481.0406291909139</v>
+        <v>474.9651707280275</v>
       </c>
       <c r="E6">
-        <v>2216.909327032102</v>
+        <v>2215.53731907797</v>
       </c>
       <c r="F6">
-        <v>2190.875211451854</v>
+        <v>2189.303644368862</v>
       </c>
       <c r="G6">
-        <v>2056.101009838984</v>
+        <v>2046.558729699035</v>
       </c>
       <c r="H6">
-        <v>2217.150133649538</v>
+        <v>2215.727219999917</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2166.472776123554</v>
+        <v>2175.990753315459</v>
       </c>
       <c r="C7">
-        <v>2030.493497846352</v>
+        <v>2002.705702188781</v>
       </c>
       <c r="D7">
-        <v>742.1278514679626</v>
+        <v>738.0768434910069</v>
       </c>
       <c r="E7">
-        <v>2209.28319458538</v>
+        <v>2207.230470444339</v>
       </c>
       <c r="F7">
-        <v>2172.310782951094</v>
+        <v>2179.641216385371</v>
       </c>
       <c r="G7">
-        <v>2070.712256698685</v>
+        <v>2056.138080628977</v>
       </c>
       <c r="H7">
-        <v>2210.270146677729</v>
+        <v>2207.899915990079</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2167.740513980736</v>
+        <v>2170.976848992308</v>
       </c>
       <c r="C8">
-        <v>1982.384839167365</v>
+        <v>2004.813689725464</v>
       </c>
       <c r="D8">
-        <v>780.1099568704429</v>
+        <v>804.7308986437116</v>
       </c>
       <c r="E8">
-        <v>2202.028990745872</v>
+        <v>2214.204966666995</v>
       </c>
       <c r="F8">
-        <v>2169.76364612606</v>
+        <v>2177.485937713882</v>
       </c>
       <c r="G8">
-        <v>2049.817509468166</v>
+        <v>2072.258329267117</v>
       </c>
       <c r="H8">
-        <v>2202.406249820687</v>
+        <v>2214.556659071673</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2181.940540741372</v>
+        <v>2169.177195852759</v>
       </c>
       <c r="C9">
-        <v>2019.818827124698</v>
+        <v>1995.729288715466</v>
       </c>
       <c r="D9">
-        <v>744.3932991661693</v>
+        <v>682.0670812054225</v>
       </c>
       <c r="E9">
-        <v>2205.775692409016</v>
+        <v>2200.161966841423</v>
       </c>
       <c r="F9">
-        <v>2189.436098052507</v>
+        <v>2174.374742323536</v>
       </c>
       <c r="G9">
-        <v>2073.482490100606</v>
+        <v>2049.954776445142</v>
       </c>
       <c r="H9">
-        <v>2207.082550820086</v>
+        <v>2200.888417624848</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1908.84393146966</v>
+        <v>1949.395255588504</v>
       </c>
       <c r="C10">
-        <v>2038.806492436251</v>
+        <v>2007.701125141178</v>
       </c>
       <c r="D10">
-        <v>1529.336312426829</v>
+        <v>1397.828101693464</v>
       </c>
       <c r="E10">
-        <v>2172.380610578276</v>
+        <v>2151.92790802539</v>
       </c>
       <c r="F10">
-        <v>2024.861244482418</v>
+        <v>2013.669316136513</v>
       </c>
       <c r="G10">
-        <v>2114.98496527085</v>
+        <v>2078.008645113796</v>
       </c>
       <c r="H10">
-        <v>2178.023297273562</v>
+        <v>2156.637807115881</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1850.571204774973</v>
+        <v>1895.211886520799</v>
       </c>
       <c r="C11">
-        <v>2047.386004418435</v>
+        <v>2024.520124465538</v>
       </c>
       <c r="D11">
-        <v>1373.274597388961</v>
+        <v>1219.632905839723</v>
       </c>
       <c r="E11">
-        <v>2173.445557392237</v>
+        <v>2159.484937073335</v>
       </c>
       <c r="F11">
-        <v>1967.172106832768</v>
+        <v>1953.53290597316</v>
       </c>
       <c r="G11">
-        <v>2103.257864896071</v>
+        <v>2073.546192319888</v>
       </c>
       <c r="H11">
-        <v>2177.081546657847</v>
+        <v>2161.896215206517</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1557.822975848908</v>
+        <v>1520.241850483013</v>
       </c>
       <c r="C12">
-        <v>2028.861029587857</v>
+        <v>1984.031298091866</v>
       </c>
       <c r="D12">
-        <v>643.7507583034647</v>
+        <v>604.2677651994221</v>
       </c>
       <c r="E12">
-        <v>2134.639480504867</v>
+        <v>2095.817069746987</v>
       </c>
       <c r="F12">
-        <v>1609.080127237416</v>
+        <v>1577.537214330844</v>
       </c>
       <c r="G12">
-        <v>2043.878760777674</v>
+        <v>2000.095755995221</v>
       </c>
       <c r="H12">
-        <v>2135.293080965606</v>
+        <v>2096.605728436749</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1889.092437598045</v>
+        <v>1895.667320934123</v>
       </c>
       <c r="C13">
-        <v>2034.465361463813</v>
+        <v>2000.244393639614</v>
       </c>
       <c r="D13">
-        <v>1332.77621821056</v>
+        <v>1193.423586559825</v>
       </c>
       <c r="E13">
-        <v>2167.399040879289</v>
+        <v>2141.866581404484</v>
       </c>
       <c r="F13">
-        <v>1979.265623244521</v>
+        <v>1951.66282726382</v>
       </c>
       <c r="G13">
-        <v>2086.80489728298</v>
+        <v>2049.044195005043</v>
       </c>
       <c r="H13">
-        <v>2170.737924912611</v>
+        <v>2144.541139488317</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
@@ -430,25 +430,25 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2153.404674655214</v>
+        <v>2153</v>
       </c>
       <c r="C2">
-        <v>2019.65137698106</v>
+        <v>2020</v>
       </c>
       <c r="D2">
-        <v>1288.598318299488</v>
+        <v>1289</v>
       </c>
       <c r="E2">
-        <v>2207.634784525159</v>
+        <v>2208</v>
       </c>
       <c r="F2">
-        <v>2166.829063095808</v>
+        <v>2167</v>
       </c>
       <c r="G2">
-        <v>2117.822127068378</v>
+        <v>2118</v>
       </c>
       <c r="H2">
-        <v>2208.403244617683</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -456,25 +456,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2167.919267104751</v>
+        <v>2168</v>
       </c>
       <c r="C3">
-        <v>2005.850707726499</v>
+        <v>2006</v>
       </c>
       <c r="D3">
-        <v>1198.80826412927</v>
+        <v>1199</v>
       </c>
       <c r="E3">
-        <v>2208.597110484804</v>
+        <v>2209</v>
       </c>
       <c r="F3">
-        <v>2177.716156320934</v>
+        <v>2178</v>
       </c>
       <c r="G3">
-        <v>2120.873835504526</v>
+        <v>2121</v>
       </c>
       <c r="H3">
-        <v>2209.645091342383</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -482,25 +482,25 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2125.536400114443</v>
+        <v>2126</v>
       </c>
       <c r="C4">
-        <v>1999.697133928843</v>
+        <v>2000</v>
       </c>
       <c r="D4">
-        <v>1331.571422266589</v>
+        <v>1332</v>
       </c>
       <c r="E4">
-        <v>2202.875555940004</v>
+        <v>2203</v>
       </c>
       <c r="F4">
-        <v>2152.505854428427</v>
+        <v>2153</v>
       </c>
       <c r="G4">
-        <v>2128.981365065217</v>
+        <v>2129</v>
       </c>
       <c r="H4">
-        <v>2205.912971439555</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -508,25 +508,25 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2181.355091771743</v>
+        <v>2181</v>
       </c>
       <c r="C5">
-        <v>2001.652044131167</v>
+        <v>2002</v>
       </c>
       <c r="D5">
-        <v>1382.46925225321</v>
+        <v>1382</v>
       </c>
       <c r="E5">
-        <v>2205.646168140773</v>
+        <v>2206</v>
       </c>
       <c r="F5">
-        <v>2184.682886923108</v>
+        <v>2185</v>
       </c>
       <c r="G5">
-        <v>2127.444333499336</v>
+        <v>2127</v>
       </c>
       <c r="H5">
-        <v>2206.06686964274</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -534,25 +534,25 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2185.000876852311</v>
+        <v>2185</v>
       </c>
       <c r="C6">
-        <v>2010.435423619375</v>
+        <v>2010</v>
       </c>
       <c r="D6">
-        <v>474.9651707280275</v>
+        <v>475</v>
       </c>
       <c r="E6">
-        <v>2215.53731907797</v>
+        <v>2216</v>
       </c>
       <c r="F6">
-        <v>2189.303644368862</v>
+        <v>2189</v>
       </c>
       <c r="G6">
-        <v>2046.558729699035</v>
+        <v>2047</v>
       </c>
       <c r="H6">
-        <v>2215.727219999917</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -560,25 +560,25 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2175.990753315459</v>
+        <v>2176</v>
       </c>
       <c r="C7">
-        <v>2002.705702188781</v>
+        <v>2003</v>
       </c>
       <c r="D7">
-        <v>738.0768434910069</v>
+        <v>738</v>
       </c>
       <c r="E7">
-        <v>2207.230470444339</v>
+        <v>2207</v>
       </c>
       <c r="F7">
-        <v>2179.641216385371</v>
+        <v>2180</v>
       </c>
       <c r="G7">
-        <v>2056.138080628977</v>
+        <v>2056</v>
       </c>
       <c r="H7">
-        <v>2207.899915990079</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -586,25 +586,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2170.976848992308</v>
+        <v>2171</v>
       </c>
       <c r="C8">
-        <v>2004.813689725464</v>
+        <v>2005</v>
       </c>
       <c r="D8">
-        <v>804.7308986437116</v>
+        <v>805</v>
       </c>
       <c r="E8">
-        <v>2214.204966666995</v>
+        <v>2214</v>
       </c>
       <c r="F8">
-        <v>2177.485937713882</v>
+        <v>2177</v>
       </c>
       <c r="G8">
-        <v>2072.258329267117</v>
+        <v>2072</v>
       </c>
       <c r="H8">
-        <v>2214.556659071673</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -612,25 +612,25 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2169.177195852759</v>
+        <v>2169</v>
       </c>
       <c r="C9">
-        <v>1995.729288715466</v>
+        <v>1996</v>
       </c>
       <c r="D9">
-        <v>682.0670812054225</v>
+        <v>682</v>
       </c>
       <c r="E9">
-        <v>2200.161966841423</v>
+        <v>2200</v>
       </c>
       <c r="F9">
-        <v>2174.374742323536</v>
+        <v>2174</v>
       </c>
       <c r="G9">
-        <v>2049.954776445142</v>
+        <v>2050</v>
       </c>
       <c r="H9">
-        <v>2200.888417624848</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -638,25 +638,25 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1949.395255588504</v>
+        <v>1949</v>
       </c>
       <c r="C10">
-        <v>2007.701125141178</v>
+        <v>2008</v>
       </c>
       <c r="D10">
-        <v>1397.828101693464</v>
+        <v>1398</v>
       </c>
       <c r="E10">
-        <v>2151.92790802539</v>
+        <v>2152</v>
       </c>
       <c r="F10">
-        <v>2013.669316136513</v>
+        <v>2014</v>
       </c>
       <c r="G10">
-        <v>2078.008645113796</v>
+        <v>2078</v>
       </c>
       <c r="H10">
-        <v>2156.637807115881</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -664,25 +664,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1895.211886520799</v>
+        <v>1895</v>
       </c>
       <c r="C11">
-        <v>2024.520124465538</v>
+        <v>2025</v>
       </c>
       <c r="D11">
-        <v>1219.632905839723</v>
+        <v>1220</v>
       </c>
       <c r="E11">
-        <v>2159.484937073335</v>
+        <v>2159</v>
       </c>
       <c r="F11">
-        <v>1953.53290597316</v>
+        <v>1954</v>
       </c>
       <c r="G11">
-        <v>2073.546192319888</v>
+        <v>2074</v>
       </c>
       <c r="H11">
-        <v>2161.896215206517</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -690,25 +690,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1520.241850483013</v>
+        <v>1520</v>
       </c>
       <c r="C12">
-        <v>1984.031298091866</v>
+        <v>1984</v>
       </c>
       <c r="D12">
-        <v>604.2677651994221</v>
+        <v>604</v>
       </c>
       <c r="E12">
-        <v>2095.817069746987</v>
+        <v>2096</v>
       </c>
       <c r="F12">
-        <v>1577.537214330844</v>
+        <v>1578</v>
       </c>
       <c r="G12">
-        <v>2000.095755995221</v>
+        <v>2000</v>
       </c>
       <c r="H12">
-        <v>2096.605728436749</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -716,25 +716,25 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1895.667320934123</v>
+        <v>1896</v>
       </c>
       <c r="C13">
-        <v>2000.244393639614</v>
+        <v>2000</v>
       </c>
       <c r="D13">
-        <v>1193.423586559825</v>
+        <v>1193</v>
       </c>
       <c r="E13">
-        <v>2141.866581404484</v>
+        <v>2142</v>
       </c>
       <c r="F13">
-        <v>1951.66282726382</v>
+        <v>1952</v>
       </c>
       <c r="G13">
-        <v>2049.044195005043</v>
+        <v>2049</v>
       </c>
       <c r="H13">
-        <v>2144.541139488317</v>
+        <v>2145</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaal_hoog.xlsx
@@ -439,7 +439,7 @@
         <v>1288.598318299488</v>
       </c>
       <c r="E2">
-        <v>2207.634784525159</v>
+        <v>2207.63478452516</v>
       </c>
       <c r="F2">
         <v>2166.829063095808</v>
@@ -456,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2167.919267104751</v>
+        <v>2167.91926710475</v>
       </c>
       <c r="C3">
         <v>2005.850707726499</v>
@@ -468,7 +468,7 @@
         <v>2208.597110484804</v>
       </c>
       <c r="F3">
-        <v>2177.716156320934</v>
+        <v>2177.716156320933</v>
       </c>
       <c r="G3">
         <v>2120.873835504526</v>
@@ -494,7 +494,7 @@
         <v>2202.875555940004</v>
       </c>
       <c r="F4">
-        <v>2152.505854428427</v>
+        <v>2152.505854428428</v>
       </c>
       <c r="G4">
         <v>2128.981365065217</v>
@@ -543,7 +543,7 @@
         <v>474.9651707280275</v>
       </c>
       <c r="E6">
-        <v>2215.53731907797</v>
+        <v>2215.537319077971</v>
       </c>
       <c r="F6">
         <v>2189.303644368862</v>
@@ -563,10 +563,10 @@
         <v>2175.990753315459</v>
       </c>
       <c r="C7">
-        <v>2002.705702188781</v>
+        <v>2002.70570218878</v>
       </c>
       <c r="D7">
-        <v>738.0768434910069</v>
+        <v>738.076843491007</v>
       </c>
       <c r="E7">
         <v>2207.230470444339</v>
@@ -575,7 +575,7 @@
         <v>2179.641216385371</v>
       </c>
       <c r="G7">
-        <v>2056.138080628977</v>
+        <v>2056.138080628976</v>
       </c>
       <c r="H7">
         <v>2207.899915990079</v>
@@ -618,7 +618,7 @@
         <v>1995.729288715466</v>
       </c>
       <c r="D9">
-        <v>682.0670812054225</v>
+        <v>682.0670812054224</v>
       </c>
       <c r="E9">
         <v>2200.161966841423</v>
@@ -641,13 +641,13 @@
         <v>1949.395255588504</v>
       </c>
       <c r="C10">
-        <v>2007.701125141178</v>
+        <v>2007.701125141177</v>
       </c>
       <c r="D10">
         <v>1397.828101693464</v>
       </c>
       <c r="E10">
-        <v>2151.92790802539</v>
+        <v>2151.927908025389</v>
       </c>
       <c r="F10">
         <v>2013.669316136513</v>
@@ -731,10 +731,10 @@
         <v>1951.66282726382</v>
       </c>
       <c r="G13">
-        <v>2049.044195005043</v>
+        <v>2049.044195005042</v>
       </c>
       <c r="H13">
-        <v>2144.541139488317</v>
+        <v>2144.541139488316</v>
       </c>
     </row>
   </sheetData>
